--- a/document/Test/IntegrationTestReport.xlsx
+++ b/document/Test/IntegrationTestReport.xlsx
@@ -276,7 +276,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -298,6 +298,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
@@ -310,8 +315,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -614,7 +617,7 @@
   <dimension ref="A1:J34"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="F10" sqref="F10"/>
+      <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -697,10 +700,10 @@
       <c r="H3" s="2"/>
     </row>
     <row r="4" spans="1:10">
-      <c r="A4" s="6" t="s">
+      <c r="A4" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="B4" s="13" t="s">
+      <c r="B4" s="9" t="s">
         <v>8</v>
       </c>
       <c r="C4" s="2" t="s">
@@ -717,7 +720,7 @@
       <c r="H4" s="2"/>
     </row>
     <row r="5" spans="1:10">
-      <c r="A5" s="8" t="s">
+      <c r="A5" s="11" t="s">
         <v>10</v>
       </c>
       <c r="B5" s="7" t="s">
@@ -737,7 +740,7 @@
       <c r="H5" s="2"/>
     </row>
     <row r="6" spans="1:10">
-      <c r="A6" s="9"/>
+      <c r="A6" s="12"/>
       <c r="B6" s="7" t="s">
         <v>11</v>
       </c>
@@ -755,7 +758,7 @@
       <c r="H6" s="2"/>
     </row>
     <row r="7" spans="1:10">
-      <c r="A7" s="9"/>
+      <c r="A7" s="12"/>
       <c r="B7" s="7" t="s">
         <v>12</v>
       </c>
@@ -773,7 +776,7 @@
       <c r="H7" s="2"/>
     </row>
     <row r="8" spans="1:10">
-      <c r="A8" s="9"/>
+      <c r="A8" s="12"/>
       <c r="B8" s="7" t="s">
         <v>13</v>
       </c>
@@ -791,7 +794,7 @@
       <c r="H8" s="2"/>
     </row>
     <row r="9" spans="1:10">
-      <c r="A9" s="9"/>
+      <c r="A9" s="12"/>
       <c r="B9" s="7" t="s">
         <v>14</v>
       </c>
@@ -809,7 +812,7 @@
       <c r="H9" s="2"/>
     </row>
     <row r="10" spans="1:10">
-      <c r="A10" s="9"/>
+      <c r="A10" s="12"/>
       <c r="B10" s="7" t="s">
         <v>15</v>
       </c>
@@ -825,7 +828,7 @@
       <c r="H10" s="2"/>
     </row>
     <row r="11" spans="1:10">
-      <c r="A11" s="9"/>
+      <c r="A11" s="12"/>
       <c r="B11" s="7" t="s">
         <v>43</v>
       </c>
@@ -857,13 +860,13 @@
         <v>33</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G12" s="2"/>
       <c r="H12" s="2"/>
     </row>
     <row r="13" spans="1:10">
-      <c r="A13" s="8" t="s">
+      <c r="A13" s="11" t="s">
         <v>17</v>
       </c>
       <c r="B13" s="7" t="s">
@@ -883,7 +886,7 @@
       <c r="H13" s="2"/>
     </row>
     <row r="14" spans="1:10">
-      <c r="A14" s="9"/>
+      <c r="A14" s="12"/>
       <c r="B14" s="7" t="s">
         <v>19</v>
       </c>
@@ -901,7 +904,7 @@
       <c r="H14" s="2"/>
     </row>
     <row r="15" spans="1:10">
-      <c r="A15" s="10"/>
+      <c r="A15" s="13"/>
       <c r="B15" s="7" t="s">
         <v>20</v>
       </c>
@@ -919,7 +922,7 @@
       <c r="H15" s="2"/>
     </row>
     <row r="16" spans="1:10">
-      <c r="A16" s="8" t="s">
+      <c r="A16" s="11" t="s">
         <v>21</v>
       </c>
       <c r="B16" s="7" t="s">
@@ -939,7 +942,7 @@
       <c r="H16" s="2"/>
     </row>
     <row r="17" spans="1:8">
-      <c r="A17" s="9"/>
+      <c r="A17" s="12"/>
       <c r="B17" s="7" t="s">
         <v>5</v>
       </c>
@@ -957,7 +960,7 @@
       <c r="H17" s="2"/>
     </row>
     <row r="18" spans="1:8">
-      <c r="A18" s="9"/>
+      <c r="A18" s="12"/>
       <c r="B18" s="7" t="s">
         <v>6</v>
       </c>
@@ -975,7 +978,7 @@
       <c r="H18" s="2"/>
     </row>
     <row r="19" spans="1:8">
-      <c r="A19" s="9"/>
+      <c r="A19" s="12"/>
       <c r="B19" s="7" t="s">
         <v>44</v>
       </c>
@@ -993,7 +996,7 @@
       <c r="H19" s="2"/>
     </row>
     <row r="20" spans="1:8">
-      <c r="A20" s="9"/>
+      <c r="A20" s="12"/>
       <c r="B20" s="7" t="s">
         <v>22</v>
       </c>
@@ -1011,7 +1014,7 @@
       <c r="H20" s="2"/>
     </row>
     <row r="21" spans="1:8">
-      <c r="A21" s="8" t="s">
+      <c r="A21" s="11" t="s">
         <v>24</v>
       </c>
       <c r="B21" s="7" t="s">
@@ -1031,7 +1034,7 @@
       <c r="H21" s="2"/>
     </row>
     <row r="22" spans="1:8">
-      <c r="A22" s="9"/>
+      <c r="A22" s="12"/>
       <c r="B22" s="7" t="s">
         <v>25</v>
       </c>
@@ -1049,7 +1052,7 @@
       <c r="H22" s="2"/>
     </row>
     <row r="23" spans="1:8">
-      <c r="A23" s="9"/>
+      <c r="A23" s="12"/>
       <c r="B23" s="7" t="s">
         <v>26</v>
       </c>
@@ -1067,7 +1070,7 @@
       <c r="H23" s="2"/>
     </row>
     <row r="24" spans="1:8">
-      <c r="A24" s="8" t="s">
+      <c r="A24" s="11" t="s">
         <v>27</v>
       </c>
       <c r="B24" s="7" t="s">
@@ -1087,7 +1090,7 @@
       <c r="H24" s="2"/>
     </row>
     <row r="25" spans="1:8">
-      <c r="A25" s="9"/>
+      <c r="A25" s="12"/>
       <c r="B25" s="7" t="s">
         <v>8</v>
       </c>
@@ -1105,7 +1108,7 @@
       <c r="H25" s="2"/>
     </row>
     <row r="26" spans="1:8">
-      <c r="A26" s="11" t="s">
+      <c r="A26" s="14" t="s">
         <v>28</v>
       </c>
       <c r="B26" s="7" t="s">
@@ -1125,7 +1128,7 @@
       <c r="H26" s="2"/>
     </row>
     <row r="27" spans="1:8">
-      <c r="A27" s="12"/>
+      <c r="A27" s="15"/>
       <c r="B27" s="7" t="s">
         <v>6</v>
       </c>
@@ -1183,7 +1186,7 @@
       <c r="H29" s="2"/>
     </row>
     <row r="30" spans="1:8">
-      <c r="A30" s="8" t="s">
+      <c r="A30" s="11" t="s">
         <v>31</v>
       </c>
       <c r="B30" s="7" t="s">
@@ -1203,8 +1206,8 @@
       <c r="H30" s="2"/>
     </row>
     <row r="31" spans="1:8">
-      <c r="A31" s="9"/>
-      <c r="B31" s="14" t="s">
+      <c r="A31" s="12"/>
+      <c r="B31" s="10" t="s">
         <v>22</v>
       </c>
       <c r="C31" s="2" t="s">
@@ -1221,8 +1224,8 @@
       <c r="H31" s="2"/>
     </row>
     <row r="32" spans="1:8">
-      <c r="A32" s="9"/>
-      <c r="B32" s="14" t="s">
+      <c r="A32" s="12"/>
+      <c r="B32" s="10" t="s">
         <v>8</v>
       </c>
       <c r="C32" s="2" t="s">
@@ -1239,8 +1242,8 @@
       <c r="H32" s="2"/>
     </row>
     <row r="33" spans="1:8">
-      <c r="A33" s="9"/>
-      <c r="B33" s="14" t="s">
+      <c r="A33" s="12"/>
+      <c r="B33" s="10" t="s">
         <v>6</v>
       </c>
       <c r="C33" s="2" t="s">
@@ -1257,8 +1260,8 @@
       <c r="H33" s="2"/>
     </row>
     <row r="34" spans="1:8">
-      <c r="A34" s="10"/>
-      <c r="B34" s="14" t="s">
+      <c r="A34" s="13"/>
+      <c r="B34" s="10" t="s">
         <v>46</v>
       </c>
       <c r="C34" s="2" t="s">

--- a/document/Test/IntegrationTestReport.xlsx
+++ b/document/Test/IntegrationTestReport.xlsx
@@ -617,7 +617,7 @@
   <dimension ref="A1:J34"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="F12" sqref="F12"/>
+      <selection activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -671,7 +671,7 @@
       </c>
       <c r="E2" s="2"/>
       <c r="F2" s="2" t="s">
-        <v>32</v>
+        <v>48</v>
       </c>
       <c r="G2" s="2"/>
       <c r="H2" s="2"/>
@@ -734,7 +734,7 @@
         <v>33</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>32</v>
+        <v>48</v>
       </c>
       <c r="G5" s="2"/>
       <c r="H5" s="2"/>
@@ -1122,7 +1122,7 @@
         <v>33</v>
       </c>
       <c r="F26" s="2" t="s">
-        <v>32</v>
+        <v>48</v>
       </c>
       <c r="G26" s="2"/>
       <c r="H26" s="2"/>
@@ -1140,7 +1140,7 @@
         <v>33</v>
       </c>
       <c r="F27" s="2" t="s">
-        <v>32</v>
+        <v>48</v>
       </c>
       <c r="G27" s="2"/>
       <c r="H27" s="2"/>
